--- a/TBracel.xlsx
+++ b/TBracel.xlsx
@@ -2248,12 +2248,12 @@
           <t>09/2024</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>03/2023</t>
-        </is>
-      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>03/2025</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr"/>
       <c r="H53" s="4" t="inlineStr"/>
       <c r="I53" s="4" t="inlineStr"/>
       <c r="J53" s="4" t="inlineStr"/>
@@ -3401,13 +3401,13 @@
           <t>07/2024</t>
         </is>
       </c>
-      <c r="H88" s="5" t="inlineStr"/>
-      <c r="I88" s="5" t="inlineStr"/>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>02/2024</t>
-        </is>
-      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I88" s="4" t="inlineStr"/>
+      <c r="J88" s="4" t="inlineStr"/>
       <c r="K88" s="4" t="inlineStr"/>
       <c r="L88" s="4" t="inlineStr"/>
       <c r="M88" s="4" t="inlineStr"/>
